--- a/src/test/java/integrationtest/payment/PaymentIntegrationTestData.xlsx
+++ b/src/test/java/integrationtest/payment/PaymentIntegrationTestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/integrationtest/payment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8326E997-4526-A64F-A674-BE055BE84AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA59EC-1221-7B4C-ADA0-078F3409C097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
-    <sheet name="Get All Catalog" sheetId="2" r:id="rId1"/>
+    <sheet name="Payment" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>testCase</t>
   </si>
@@ -41,50 +41,116 @@
     <t>result</t>
   </si>
   <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>Telkomsel</t>
-  </si>
-  <si>
-    <t>Tri</t>
-  </si>
-  <si>
-    <t>Indosat</t>
-  </si>
-  <si>
-    <t>Smartfren</t>
-  </si>
-  <si>
-    <t>Axis</t>
-  </si>
-  <si>
-    <t>08773</t>
-  </si>
-  <si>
-    <t>08125</t>
-  </si>
-  <si>
-    <t>08996</t>
-  </si>
-  <si>
-    <t>08565</t>
-  </si>
-  <si>
-    <t>08810</t>
-  </si>
-  <si>
-    <t>08312</t>
-  </si>
-  <si>
-    <t>phonePrefix</t>
+    <t>voucherId</t>
+  </si>
+  <si>
+    <t>Cashback 1000</t>
+  </si>
+  <si>
+    <t>Cashback 1500</t>
+  </si>
+  <si>
+    <t>Cashback 2000</t>
+  </si>
+  <si>
+    <t>Cashback 2500</t>
+  </si>
+  <si>
+    <t>Cashback 3000</t>
+  </si>
+  <si>
+    <t>Cashback 3500</t>
+  </si>
+  <si>
+    <t>Discount 5%</t>
+  </si>
+  <si>
+    <t>Discount 10%</t>
+  </si>
+  <si>
+    <t>Discount 15%</t>
+  </si>
+  <si>
+    <t>Discount 20%</t>
+  </si>
+  <si>
+    <t>Discount 25%</t>
+  </si>
+  <si>
+    <t>Discount 30%</t>
+  </si>
+  <si>
+    <t>Discount 35%</t>
+  </si>
+  <si>
+    <t>Discount 40%</t>
+  </si>
+  <si>
+    <t>Discount 45%</t>
+  </si>
+  <si>
+    <t>Discount 50%</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>No claim voucher</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +161,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -151,6 +223,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -483,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -491,71 +564,159 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/integrationtest/payment/PaymentIntegrationTestData.xlsx
+++ b/src/test/java/integrationtest/payment/PaymentIntegrationTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/integrationtest/payment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA59EC-1221-7B4C-ADA0-078F3409C097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65080498-2005-5B4F-B799-7D9BFD90A31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment" sheetId="2" r:id="rId1"/>
+    <sheet name="Backup Payment" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>testCase</t>
   </si>
@@ -538,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,152 +572,190 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2545D4-711C-1947-B075-7D3EC563ABE4}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/integrationtest/payment/PaymentIntegrationTestData.xlsx
+++ b/src/test/java/integrationtest/payment/PaymentIntegrationTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/integrationtest/payment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65080498-2005-5B4F-B799-7D9BFD90A31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1559270-C920-D24E-8689-4C6EAC534472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
